--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail15 Features.xlsx
@@ -2844,7 +2844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2855,29 +2855,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2898,115 +2896,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3023,72 +3011,66 @@
         <v>2.448425131630189e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.8291417775929788</v>
+        <v>1.558016766596689e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.901042679279205</v>
+        <v>4.456710572566631e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.558016766596689e-06</v>
+        <v>0.09279903956401517</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.456710572566631e-06</v>
+        <v>0.3004538496317059</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.09279903956401517</v>
+        <v>0.09873744782560386</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3004538496317059</v>
+        <v>1.643919366210766</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09873744782560386</v>
+        <v>1.441355749838213</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.570704704772236</v>
+        <v>3.981891266048709</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.441355749838213</v>
+        <v>4.27922089683634e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.981891266048709</v>
+        <v>10966243.24751824</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.27922089683634e-14</v>
+        <v>9.744041053806064e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>10966243.24751824</v>
+        <v>5.146126475540373</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.744041053806064e-06</v>
+        <v>0.0001744420607671865</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5.146126475540373</v>
+        <v>11.28495731965036</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001744420607671865</v>
+        <v>1.33306048228561</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.28495731965036</v>
+        <v>0.02221524209129275</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.33306048228561</v>
+        <v>2.982251248013469</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02221524209129275</v>
+        <v>0.9452437259643087</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.982251248013469</v>
+        <v>1.88319143953169</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9452437259643087</v>
+        <v>1</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.88319143953169</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1670863849449613</v>
       </c>
     </row>
@@ -3103,72 +3085,66 @@
         <v>2.132970548180858e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.02215334074602195</v>
+        <v>1.222937217277182e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.4475234647697151</v>
+        <v>4.476305413904453e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.222937217277182e-06</v>
+        <v>0.07817571331039389</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.476305413904453e-06</v>
+        <v>0.2883124520108934</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.07817571331039389</v>
+        <v>0.08910438983022353</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2883124520108934</v>
+        <v>1.637939276646309</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08910438983022353</v>
+        <v>1.448583249122522</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.560384041480879</v>
+        <v>3.978064888708264</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.448583249122522</v>
+        <v>4.287456955881575e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.978064888708264</v>
+        <v>11108494.80072499</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.287456955881575e-14</v>
+        <v>9.622574528730678e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>11108494.80072499</v>
+        <v>5.290664291766404</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.622574528730678e-06</v>
+        <v>0.0001277259632895869</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>5.290664291766404</v>
+        <v>10.82034774829392</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001277259632895869</v>
+        <v>1.156994130513625</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.82034774829392</v>
+        <v>0.01495414625282281</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.156994130513625</v>
+        <v>2.989526125514556</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01495414625282281</v>
+        <v>0.9454853922699894</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.989526125514556</v>
+        <v>1.845837984324429</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9454853922699894</v>
+        <v>1</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.845837984324429</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1912703866183394</v>
       </c>
     </row>
@@ -3183,72 +3159,66 @@
         <v>1.96305120956435e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4274301220826153</v>
+        <v>9.474082998373608e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.6337465980922161</v>
+        <v>4.490347784220321e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.474082998373608e-07</v>
+        <v>0.05905407287557098</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.490347784220321e-06</v>
+        <v>0.2631617876384099</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.05905407287557098</v>
+        <v>0.07263565822434037</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2631617876384099</v>
+        <v>1.631275963114814</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.07263565822434037</v>
+        <v>1.470291907573853</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.552850306865946</v>
+        <v>3.983707933754103</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.470291907573853</v>
+        <v>4.275318929127898e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.983707933754103</v>
+        <v>11083168.2392107</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.275318929127898e-14</v>
+        <v>9.616596445582559e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>11083168.2392107</v>
+        <v>5.251657190602462</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>9.616596445582559e-06</v>
+        <v>0.0001213256177701062</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.251657190602462</v>
+        <v>9.083679876364506</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001213256177701062</v>
+        <v>1.232888245839189</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.083679876364506</v>
+        <v>0.01001096982889299</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.232888245839189</v>
+        <v>3.022571430539821</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01001096982889299</v>
+        <v>0.9445800712791251</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.022571430539821</v>
+        <v>1.877492129399052</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9445800712791251</v>
+        <v>6</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.877492129399052</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1955896395568149</v>
       </c>
     </row>
@@ -3263,72 +3233,66 @@
         <v>1.89048865347353e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.5357619702166952</v>
+        <v>7.250573587581518e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8425872651392474</v>
+        <v>4.499780127313363e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.250573587581518e-07</v>
+        <v>0.03943709694266741</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.499780127313363e-06</v>
+        <v>0.2322827079295871</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03943709694266741</v>
+        <v>0.05544317845347404</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2322827079295871</v>
+        <v>1.625906222605686</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05544317845347404</v>
+        <v>1.466762051027405</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.542229367583387</v>
+        <v>3.98258404425868</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.466762051027405</v>
+        <v>4.277732268792163e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.98258404425868</v>
+        <v>11106681.27518801</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.277732268792163e-14</v>
+        <v>9.572637435215174e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>11106681.27518801</v>
+        <v>5.276940754770467</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.572637435215174e-06</v>
+        <v>0.0001226423561188454</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>5.276940754770467</v>
+        <v>7.68114612506532</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001226423561188454</v>
+        <v>1.31370162078667</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.68114612506532</v>
+        <v>0.00723589972167601</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.31370162078667</v>
+        <v>3.117509312754477</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.00723589972167601</v>
+        <v>0.9460368353592971</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.117509312754477</v>
+        <v>1.874374216698252</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9460368353592971</v>
+        <v>9</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.874374216698252</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1890829879896814</v>
       </c>
     </row>
@@ -3343,72 +3307,66 @@
         <v>1.86741293015273e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.5057987580861794</v>
+        <v>6.497498293319617e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.859639554992675</v>
+        <v>4.505627482632452e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.497498293319617e-07</v>
+        <v>0.02396273637151328</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.505627482632452e-06</v>
+        <v>0.214063055012447</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02396273637151328</v>
+        <v>0.0463744201409271</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.214063055012447</v>
+        <v>1.623767629494327</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0463744201409271</v>
+        <v>1.447212233291981</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.539299258235641</v>
+        <v>3.986829595718283</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.447212233291981</v>
+        <v>4.268626455717625e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.986829595718283</v>
+        <v>11078626.19789851</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.268626455717625e-14</v>
+        <v>9.577803144185531e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>11078626.19789851</v>
+        <v>5.239139592339514</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.577803144185531e-06</v>
+        <v>0.0001308406670009356</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>5.239139592339514</v>
+        <v>7.218084081529181</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001308406670009356</v>
+        <v>1.518857816231731</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.218084081529181</v>
+        <v>0.00681689528604285</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.518857816231731</v>
+        <v>3.141159312556104</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00681689528604285</v>
+        <v>0.9473892138050015</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.141159312556104</v>
+        <v>1.837867443098964</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9473892138050015</v>
+        <v>9</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.837867443098964</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1777677048147268</v>
       </c>
     </row>
@@ -3423,72 +3381,66 @@
         <v>1.860120499931214e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4638688226850142</v>
+        <v>6.497498293319617e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8689940776154264</v>
+        <v>4.50913493509675e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.497498293319617e-07</v>
+        <v>0.01459232049256373</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.50913493509675e-06</v>
+        <v>0.2107644861560445</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01459232049256373</v>
+        <v>0.04462886434600323</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2107644861560445</v>
+        <v>1.621817570737963</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04462886434600323</v>
+        <v>1.445057029524968</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.536503126784492</v>
+        <v>4.018581476518275</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.445057029524968</v>
+        <v>4.201437840742669e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.018581476518275</v>
+        <v>11203039.76043854</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.201437840742669e-14</v>
+        <v>9.436694552948645e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>11203039.76043854</v>
+        <v>5.273144801301945</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>9.436694552948645e-06</v>
+        <v>0.0001386946681087017</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>5.273144801301945</v>
+        <v>8.803898365194275</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001386946681087017</v>
+        <v>1.322256984169622</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.803898365194275</v>
+        <v>0.01075003321753101</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.322256984169622</v>
+        <v>3.048907190964305</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01075003321753101</v>
+        <v>0.9469337273284664</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.048907190964305</v>
+        <v>1.869661770447975</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9469337273284664</v>
+        <v>14</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.869661770447975</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1719701707902044</v>
       </c>
     </row>
@@ -3503,72 +3455,66 @@
         <v>1.856223732679637e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.4342276697588513</v>
+        <v>6.497498293319617e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.8735115992908002</v>
+        <v>4.511309584791991e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.497498293319617e-07</v>
+        <v>0.009310337241620819</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.511309584791991e-06</v>
+        <v>0.2116127933128055</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.009310337241620819</v>
+        <v>0.04486474001225577</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2116127933128055</v>
+        <v>1.611726873782515</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04486474001225577</v>
+        <v>1.454333592064708</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.529255052970279</v>
+        <v>4.029581630006738</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.454333592064708</v>
+        <v>4.178530559861155e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.029581630006738</v>
+        <v>11173923.54748031</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.178530559861155e-14</v>
+        <v>9.410072517292904e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>11173923.54748031</v>
+        <v>5.217169826680261</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>9.410072517292904e-06</v>
+        <v>0.0001349201167519567</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>5.217169826680261</v>
+        <v>10.42312686758715</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001349201167519567</v>
+        <v>1.146110613472032</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.42312686758715</v>
+        <v>0.01465793380742577</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.146110613472032</v>
+        <v>2.908755840511291</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01465793380742577</v>
+        <v>0.9436881420554288</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.908755840511291</v>
+        <v>1.904902179082605</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9436881420554288</v>
+        <v>14</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.904902179082605</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1829024022617606</v>
       </c>
     </row>
@@ -3583,72 +3529,66 @@
         <v>1.853091567694253e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.4147277034339177</v>
+        <v>6.497498293319617e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.8729643669379317</v>
+        <v>4.512744281557404e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.497498293319617e-07</v>
+        <v>0.006452150672558967</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.512744281557404e-06</v>
+        <v>0.2126867260540331</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.006452150672558967</v>
+        <v>0.04527640424961381</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2126867260540331</v>
+        <v>1.609677238948699</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04527640424961381</v>
+        <v>1.437470256441905</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.529256305630643</v>
+        <v>4.030520664247192</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.437470256441905</v>
+        <v>4.176583751240589e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.030520664247192</v>
+        <v>11204629.73527271</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.176583751240589e-14</v>
+        <v>9.396038461132004e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>11204629.73527271</v>
+        <v>5.243438923657103</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>9.396038461132004e-06</v>
+        <v>0.000123279020490593</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>5.243438923657103</v>
+        <v>9.185971788993408</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000123279020490593</v>
+        <v>1.186546738475903</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.185971788993408</v>
+        <v>0.01040253988682587</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.186546738475903</v>
+        <v>3.017658802363876</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01040253988682587</v>
+        <v>0.9449638254768313</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.017658802363876</v>
+        <v>1.87814049463208</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9449638254768313</v>
+        <v>14</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.87814049463208</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1903613078578002</v>
       </c>
     </row>
@@ -3663,72 +3603,66 @@
         <v>1.850225502371159e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.4013494469415014</v>
+        <v>6.497498293319617e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.8695375381350474</v>
+        <v>4.513777838761832e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.497498293319617e-07</v>
+        <v>0.004800463160394604</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.513777838761832e-06</v>
+        <v>0.2134866837357393</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.004800463160394604</v>
+        <v>0.04559901937211785</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2134866837357393</v>
+        <v>1.611102281054108</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.04559901937211785</v>
+        <v>1.420978586438228</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.533721459059731</v>
+        <v>4.088443610073531</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.420978586438228</v>
+        <v>4.059078725580032e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.088443610073531</v>
+        <v>11741206.18020074</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.059078725580032e-14</v>
+        <v>9.001851751431969e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>11741206.18020074</v>
+        <v>5.595680424827944</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>9.001851751431969e-06</v>
+        <v>0.0001209200702419481</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>5.595680424827944</v>
+        <v>7.490995667022232</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001209200702419481</v>
+        <v>1.311876592646659</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.490995667022232</v>
+        <v>0.006785431686426226</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.311876592646659</v>
+        <v>3.141046845596922</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006785431686426226</v>
+        <v>0.946363309375537</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.141046845596922</v>
+        <v>1.858481956858157</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.946363309375537</v>
+        <v>14</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.858481956858157</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1893493341123619</v>
       </c>
     </row>
@@ -3743,72 +3677,66 @@
         <v>1.847537651048949e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3917308891832717</v>
+        <v>6.497498293319617e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.8647169686004754</v>
+        <v>4.514574051168026e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.497498293319617e-07</v>
+        <v>0.004051230822068007</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.514574051168026e-06</v>
+        <v>0.2140062374616184</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.004051230822068007</v>
+        <v>0.04581453555490336</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2140062374616184</v>
+        <v>1.605782942181517</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.04581453555490336</v>
+        <v>1.398908793684473</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.530980930374632</v>
+        <v>4.215078722384568</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.398908793684473</v>
+        <v>3.818845765668442e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.215078722384568</v>
+        <v>12395354.84722113</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.818845765668442e-14</v>
+        <v>8.509488847948633e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>12395354.84722113</v>
+        <v>5.867458771040041</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.509488847948633e-06</v>
+        <v>0.0001260935716839935</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>5.867458771040041</v>
+        <v>7.35214624040808</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001260935716839935</v>
+        <v>1.383102722014487</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.35214624040808</v>
+        <v>0.006815868775774983</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.383102722014487</v>
+        <v>3.095978237328663</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006815868775774983</v>
+        <v>0.9479314557241164</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.095978237328663</v>
+        <v>1.873078286652552</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9479314557241164</v>
+        <v>14</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.873078286652552</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1894736777089255</v>
       </c>
     </row>
@@ -3823,72 +3751,66 @@
         <v>1.844191232394647e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.382842519127947</v>
+        <v>6.497498293319617e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.8574227556380878</v>
+        <v>4.515394192801533e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.497498293319617e-07</v>
+        <v>0.005097505232966343</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.515394192801533e-06</v>
+        <v>0.2140325311169394</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.005097505232966343</v>
+        <v>0.04583489156375808</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2140325311169394</v>
+        <v>1.614762666873687</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.04583489156375808</v>
+        <v>1.425164822993095</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.539274572426942</v>
+        <v>4.266585908023112</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.425164822993095</v>
+        <v>3.599770273174725e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.266585908023112</v>
+        <v>13245304.26054906</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.599770273174725e-14</v>
+        <v>8.018079751320263e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>13245304.26054906</v>
+        <v>6.315368030019803</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>8.018079751320263e-06</v>
+        <v>0.0001388371389462803</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>6.315368030019803</v>
+        <v>8.358216894187755</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001388371389462803</v>
+        <v>1.32582521095845</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.358216894187755</v>
+        <v>0.009699133322434616</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.32582521095845</v>
+        <v>2.933642411622087</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.009699133322434616</v>
+        <v>0.9500535629137807</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.933642411622087</v>
+        <v>1.860742992239208</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9500535629137807</v>
+        <v>14</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.860742992239208</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1859543526829241</v>
       </c>
     </row>
@@ -3903,72 +3825,66 @@
         <v>1.838707041488217e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.3722712048266706</v>
+        <v>6.497498293319617e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.8443371087841749</v>
+        <v>4.51653031314428e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>6.497498293319617e-07</v>
+        <v>0.007365482878327667</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.51653031314428e-06</v>
+        <v>0.2139692017338651</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.007365482878327667</v>
+        <v>0.04583598288784046</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2139692017338651</v>
+        <v>1.618877580547318</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.04583598288784046</v>
+        <v>1.434827335839105</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.546587807870929</v>
+        <v>4.292658019463752</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.434827335839105</v>
+        <v>3.55617556136438e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.292658019463752</v>
+        <v>13837433.90354469</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.55617556136438e-14</v>
+        <v>7.748164998105573e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>13837433.90354469</v>
+        <v>6.809172114743346</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>7.748164998105573e-06</v>
+        <v>0.0001571708279649781</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>6.809172114743346</v>
+        <v>10.0501983951051</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001571708279649781</v>
+        <v>1.147068777289852</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.0501983951051</v>
+        <v>0.01587527331436998</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.147068777289852</v>
+        <v>2.634379000176307</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01587527331436998</v>
+        <v>0.9481870395710039</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.634379000176307</v>
+        <v>1.836744667303345</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9481870395710039</v>
+        <v>14</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.836744667303345</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1858670150425853</v>
       </c>
     </row>
@@ -3983,72 +3899,66 @@
         <v>1.83005638486641e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.3593211916678577</v>
+        <v>6.497498293319617e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.8231032524200499</v>
+        <v>4.518142012355393e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>6.497498293319617e-07</v>
+        <v>0.01024109933572846</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.518142012355393e-06</v>
+        <v>0.2145109884887356</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.01024109933572846</v>
+        <v>0.0461188927798786</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2145109884887356</v>
+        <v>1.632210148525503</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.0461188927798786</v>
+        <v>1.428669642992368</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.562952193214361</v>
+        <v>4.124216754000376</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.428669642992368</v>
+        <v>3.367724028743371e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.124216754000376</v>
+        <v>14657363.31325102</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.367724028743371e-14</v>
+        <v>7.347835635069133e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>14657363.31325102</v>
+        <v>7.23516102835644</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>7.347835635069133e-06</v>
+        <v>0.0001508345130396468</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>7.23516102835644</v>
+        <v>10.56381838444064</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001508345130396468</v>
+        <v>1.128920669980861</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.56381838444064</v>
+        <v>0.01683226569308483</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.128920669980861</v>
+        <v>2.810177710569825</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01683226569308483</v>
+        <v>0.9500237365496147</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.810177710569825</v>
+        <v>1.884821542436481</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9500237365496147</v>
+        <v>14</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.884821542436481</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1977058494131352</v>
       </c>
     </row>
@@ -4063,72 +3973,66 @@
         <v>1.818160669685071e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.343550994963392</v>
+        <v>6.497498293319617e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.7937165590673074</v>
+        <v>4.520271496001763e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.497498293319617e-07</v>
+        <v>0.01308903403405842</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.520271496001763e-06</v>
+        <v>0.2158431132442093</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.01308903403405842</v>
+        <v>0.04675867225069708</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2158431132442093</v>
+        <v>1.764475730479717</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.04675867225069708</v>
+        <v>1.442265178742938</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.705651903345321</v>
+        <v>4.328635570324765</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.442265178742938</v>
+        <v>2.858367794884677e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.328635570324765</v>
+        <v>15675966.33023818</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.858367794884677e-14</v>
+        <v>7.452986216998523e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>15675966.33023818</v>
+        <v>7.024036408798624</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>7.452986216998523e-06</v>
+        <v>0.0001869260653252321</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>7.024036408798624</v>
+        <v>10.4200988719028</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001869260653252321</v>
+        <v>2.034896563729197</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.4200988719028</v>
+        <v>0.02029614440037914</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>2.034896563729197</v>
+        <v>3.171055607014844</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02029614440037914</v>
+        <v>0.9596565277182265</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.171055607014844</v>
+        <v>1.713950674085891</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9596565277182265</v>
+        <v>13</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.713950674085891</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2623534189845826</v>
       </c>
     </row>
@@ -4143,72 +4047,66 @@
         <v>1.803518984900658e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3242455360400886</v>
+        <v>6.497498293319617e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.7574101640763349</v>
+        <v>4.522907406274169e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.497498293319617e-07</v>
+        <v>0.01608684732161762</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.522907406274169e-06</v>
+        <v>0.2178845689736723</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.01608684732161762</v>
+        <v>0.047731074118914</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2178845689736723</v>
+        <v>1.784909931729884</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.047731074118914</v>
+        <v>1.496997173906944</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.736634304037456</v>
+        <v>5.755474379495521</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.496997173906944</v>
+        <v>9.328168935715775e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.755474379495521</v>
+        <v>47065588.70648913</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>9.328168935715775e-15</v>
+        <v>2.486869117744256e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>47065588.70648913</v>
+        <v>20.66347662587892</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.486869117744256e-06</v>
+        <v>0.0001087920598099575</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>20.66347662587892</v>
+        <v>7.189081897774287</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001087920598099575</v>
+        <v>2.038156500923186</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.189081897774287</v>
+        <v>0.005622688988343866</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>2.038156500923186</v>
+        <v>3.450862688883769</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.005622688988343866</v>
+        <v>0.9607928594513286</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.450862688883769</v>
+        <v>1.692096174935031</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9607928594513286</v>
+        <v>13</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.692096174935031</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.4575467424467674</v>
       </c>
     </row>
@@ -4223,72 +4121,66 @@
         <v>1.786999105536138e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.2999276436981048</v>
+        <v>6.497498293319617e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.7162280296220591</v>
+        <v>4.526036119718631e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.497498293319617e-07</v>
+        <v>0.01846505441303975</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.526036119718631e-06</v>
+        <v>0.2202336760223474</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.01846505441303975</v>
+        <v>0.04884368788122657</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2202336760223474</v>
+        <v>1.741157465884903</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.04884368788122657</v>
+        <v>1.735680095261849</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.688302713458523</v>
+        <v>5.626659117460362</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.735680095261849</v>
+        <v>6.337405434328744e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.626659117460362</v>
+        <v>66003181.01495691</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.337405434328744e-15</v>
+        <v>1.730272718118102e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>66003181.01495691</v>
+        <v>27.60839917441795</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.730272718118102e-06</v>
+        <v>0.0001286521707390291</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>27.60839917441795</v>
+        <v>7.627577171681014</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001286521707390291</v>
+        <v>1.49833246475013</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.627577171681014</v>
+        <v>0.007484974739507362</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.49833246475013</v>
+        <v>3.280830680500399</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.007484974739507362</v>
+        <v>0.9560831690829958</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.280830680500399</v>
+        <v>1.685815908002084</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9560831690829958</v>
+        <v>14</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.685815908002084</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.3715314155835137</v>
       </c>
     </row>
@@ -4665,7 +4557,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.237211502777855</v>
+        <v>1.22335348910939</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.284276049851965</v>
@@ -4754,7 +4646,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.247573655154238</v>
+        <v>1.233732352971093</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.194202648914597</v>
@@ -4843,7 +4735,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.266237406160327</v>
+        <v>1.250357039895095</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.017569894509149</v>
@@ -4932,7 +4824,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.297251624496375</v>
+        <v>1.283300372728827</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.019440908056121</v>
@@ -5021,7 +4913,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.346967486007134</v>
+        <v>1.331515774955214</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.131706740402712</v>
@@ -5110,7 +5002,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.374871216566038</v>
+        <v>1.361752875921057</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.124047709701943</v>
@@ -5199,7 +5091,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.43299500294998</v>
+        <v>1.42334026828546</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.361231400203964</v>
@@ -5288,7 +5180,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.445141097924081</v>
+        <v>1.435116080143772</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.364704365261623</v>
@@ -5377,7 +5269,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.476743451370013</v>
+        <v>1.458424821163894</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.025597118532259</v>
@@ -5466,7 +5358,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.465765480692485</v>
+        <v>1.455793260612329</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.227101741556559</v>
@@ -5555,7 +5447,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.461841766167937</v>
+        <v>1.451504870629927</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.202002603804402</v>
@@ -5644,7 +5536,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.465025511635352</v>
+        <v>1.457687604624682</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.1610681572516</v>
@@ -5733,7 +5625,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.457547824281738</v>
+        <v>1.446903951926049</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.097784899184886</v>
@@ -5822,7 +5714,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.446245749619113</v>
+        <v>1.434481393185617</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.195830430481988</v>
@@ -5911,7 +5803,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.409691327028575</v>
+        <v>1.406717784362909</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.145384077949854</v>
@@ -6000,7 +5892,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.429654437856329</v>
+        <v>1.424780484474921</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.189001764165175</v>
@@ -6089,7 +5981,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.409764386949502</v>
+        <v>1.406498196992392</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.115559376920211</v>
@@ -6178,7 +6070,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.404162549762385</v>
+        <v>1.400630198878714</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.182117945802836</v>
@@ -6267,7 +6159,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.407978488282253</v>
+        <v>1.403790794994518</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.147381203920344</v>
@@ -6356,7 +6248,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.405807961630929</v>
+        <v>1.405232765174688</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.151592906182465</v>
@@ -6445,7 +6337,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.414195658192264</v>
+        <v>1.408578356735974</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.218027903799066</v>
@@ -6534,7 +6426,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.395213016502838</v>
+        <v>1.394973285304514</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.185163866122577</v>
@@ -6623,7 +6515,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.392478164223338</v>
+        <v>1.391745018514874</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.196065210134429</v>
@@ -6712,7 +6604,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.38667756297932</v>
+        <v>1.385086647203766</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.157345190099452</v>
@@ -6801,7 +6693,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.404497281587892</v>
+        <v>1.405818134741609</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.220322165761183</v>
@@ -6890,7 +6782,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.392885038772165</v>
+        <v>1.392381405713544</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.32806229261897</v>
@@ -6979,7 +6871,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.378537080551966</v>
+        <v>1.376317324205256</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.285802412060423</v>
@@ -7068,7 +6960,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.376366133061858</v>
+        <v>1.373695442937792</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.385331997637975</v>
@@ -7157,7 +7049,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.395698276733353</v>
+        <v>1.39263581429488</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.288330792246386</v>
@@ -7246,7 +7138,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.407325290607534</v>
+        <v>1.406001592891158</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.128639115809291</v>
@@ -7335,7 +7227,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.374995123585169</v>
+        <v>1.372280200569104</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.304677327662799</v>
@@ -7424,7 +7316,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.367660498574105</v>
+        <v>1.36453815030309</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.29137233511032</v>
@@ -7513,7 +7405,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.377565198915113</v>
+        <v>1.367917998148822</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.255983278000368</v>
@@ -7602,7 +7494,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.343754127659395</v>
+        <v>1.337794544506419</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.339115451024994</v>
@@ -7691,7 +7583,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.337337995166738</v>
+        <v>1.321172873305197</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.165138446595756</v>
@@ -7780,7 +7672,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.347316940898802</v>
+        <v>1.334778968717317</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.151588267297178</v>
@@ -7869,7 +7761,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.342758415201434</v>
+        <v>1.327963954707207</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.142730933175825</v>
@@ -7958,7 +7850,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.333903850222828</v>
+        <v>1.318686819949115</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.227252138525991</v>
@@ -8047,7 +7939,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.335098799151486</v>
+        <v>1.321619141923519</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.304972786108369</v>
@@ -8136,7 +8028,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.341320679037795</v>
+        <v>1.32475607339416</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.163837584659785</v>
@@ -8225,7 +8117,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.33132555899253</v>
+        <v>1.31778677182371</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.283496370658781</v>
@@ -8314,7 +8206,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.333232137622075</v>
+        <v>1.323645086574213</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.256956985103289</v>
@@ -8403,7 +8295,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.328927043788475</v>
+        <v>1.319894833580103</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.219894057600317</v>
@@ -8492,7 +8384,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.320816917016646</v>
+        <v>1.312295575516193</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.401955506240614</v>
@@ -8581,7 +8473,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.328670173714416</v>
+        <v>1.320716907261444</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.253910786716987</v>
@@ -8670,7 +8562,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.35335610940791</v>
+        <v>1.348923695061516</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.144586334057513</v>
@@ -8759,7 +8651,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.379865862028228</v>
+        <v>1.37764605366007</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.162813208728099</v>
@@ -8848,7 +8740,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.393493874820681</v>
+        <v>1.396444651640764</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.437280608246771</v>
@@ -8937,7 +8829,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.413721323157842</v>
+        <v>1.419804966773878</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.211698841860025</v>
@@ -9026,7 +8918,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.434260642786012</v>
+        <v>1.449894621178571</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.221230819303267</v>
@@ -9115,7 +9007,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.415549599779117</v>
+        <v>1.427640415584867</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.135737506431002</v>
@@ -9204,7 +9096,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.395944236489542</v>
+        <v>1.40663204034228</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.42348207411367</v>
@@ -9293,7 +9185,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.412046216792264</v>
+        <v>1.426036706500507</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.429355470896226</v>
@@ -9382,7 +9274,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.43196532129065</v>
+        <v>1.445572587017437</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.5466604441189</v>
@@ -9471,7 +9363,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.43135323483336</v>
+        <v>1.442849323932971</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.22097933693242</v>
@@ -9560,7 +9452,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.456158903662204</v>
+        <v>1.471627446126759</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.313522212322801</v>
@@ -9649,7 +9541,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.472721109202115</v>
+        <v>1.482994004375547</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.313882630565518</v>
@@ -9738,7 +9630,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.473914795248961</v>
+        <v>1.482852410138097</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.356594867313898</v>
@@ -9827,7 +9719,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.499727771234387</v>
+        <v>1.512413468674223</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.123705728537792</v>
@@ -9916,7 +9808,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.475343801536529</v>
+        <v>1.487363554673913</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.221227753863422</v>
@@ -10005,7 +9897,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.451630433559456</v>
+        <v>1.461610967402037</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.290474617545072</v>
@@ -10291,7 +10183,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.515349696190283</v>
+        <v>1.527532880047775</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.536212005454046</v>
@@ -10380,7 +10272,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.517125979748756</v>
+        <v>1.525399409626418</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.570174577291872</v>
@@ -10469,7 +10361,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.503056325747418</v>
+        <v>1.508182203948748</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.772016188328199</v>
@@ -10558,7 +10450,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.533330086757819</v>
+        <v>1.538114539051054</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.886095678230449</v>
@@ -10647,7 +10539,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.552999040753823</v>
+        <v>1.554797486277448</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.860839198677003</v>
@@ -10736,7 +10628,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.553672711224066</v>
+        <v>1.552125061454125</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.123992224503228</v>
@@ -10825,7 +10717,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.573076217369842</v>
+        <v>1.569195667359773</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.05818265254372</v>
@@ -10914,7 +10806,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.567983279045819</v>
+        <v>1.566147341177084</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.001425215517877</v>
@@ -11003,7 +10895,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.580318673979351</v>
+        <v>1.577873369882984</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.995574964467614</v>
@@ -11092,7 +10984,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.575479053271869</v>
+        <v>1.577289541340972</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.258420406151442</v>
@@ -11181,7 +11073,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.565744967340554</v>
+        <v>1.562018530044619</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.286846631400819</v>
@@ -11270,7 +11162,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.584725678452874</v>
+        <v>1.580070326563437</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.920575731804545</v>
@@ -11359,7 +11251,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.599493297833022</v>
+        <v>1.592274842377716</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.061377392892185</v>
@@ -11448,7 +11340,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.623582658613498</v>
+        <v>1.618779148971236</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.072475206094259</v>
@@ -11537,7 +11429,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.598395581444021</v>
+        <v>1.60113022994677</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.709581928577351</v>
@@ -11626,7 +11518,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.61447876137343</v>
+        <v>1.614902830889906</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.569639946563775</v>
@@ -11715,7 +11607,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.617107492587258</v>
+        <v>1.614034142942678</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.410681786172201</v>
@@ -11804,7 +11696,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.616422356914564</v>
+        <v>1.609673760644104</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.810315604061392</v>
@@ -11893,7 +11785,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.642356769918729</v>
+        <v>1.633803927833792</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.685668592263943</v>
@@ -11982,7 +11874,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.630262215308165</v>
+        <v>1.630271063807887</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.776907779500096</v>
@@ -12071,7 +11963,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.647710049772208</v>
+        <v>1.652576161010854</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.89128881464644</v>
@@ -12160,7 +12052,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.633231480302126</v>
+        <v>1.642973473569967</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.710706749594839</v>
@@ -12249,7 +12141,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.609936654535019</v>
+        <v>1.62308314327584</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.5398356562056</v>
@@ -12338,7 +12230,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.564193854346717</v>
+        <v>1.58173423985704</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.313733896509891</v>
@@ -12427,7 +12319,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.572536149360776</v>
+        <v>1.58793663164081</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.339577726199044</v>
@@ -12516,7 +12408,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.577899647771939</v>
+        <v>1.596185363235479</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.381402410873362</v>
@@ -12605,7 +12497,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.585212512849924</v>
+        <v>1.605425759273458</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.381695147055672</v>
@@ -12694,7 +12586,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.586706350410936</v>
+        <v>1.602498409645706</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.401707541048336</v>
@@ -12783,7 +12675,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.58760066052018</v>
+        <v>1.602666813331851</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.347817257031577</v>
@@ -12872,7 +12764,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.600297821282397</v>
+        <v>1.616586974264944</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.447808672512502</v>
@@ -12961,7 +12853,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.591844076306353</v>
+        <v>1.608930047131619</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.427817589147093</v>
@@ -13050,7 +12942,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.594290852287031</v>
+        <v>1.615694050879949</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.393225524873992</v>
@@ -13139,7 +13031,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.597465060745894</v>
+        <v>1.621438711105039</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.390451284786754</v>
@@ -13228,7 +13120,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.582625319771395</v>
+        <v>1.604615593738022</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.199019200003781</v>
@@ -13317,7 +13209,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.582941741047283</v>
+        <v>1.597204974795863</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.313612971151599</v>
@@ -13406,7 +13298,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.584702174204071</v>
+        <v>1.600732466503246</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.3028693542633</v>
@@ -13495,7 +13387,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.591617503985935</v>
+        <v>1.601228202569526</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.158305952261181</v>
@@ -13584,7 +13476,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.616338196769299</v>
+        <v>1.625207800034467</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.224473186214398</v>
@@ -13673,7 +13565,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.680686129919202</v>
+        <v>1.682872838726453</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.144980202376375</v>
@@ -13762,7 +13654,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.692232971210795</v>
+        <v>1.695777124979504</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.2205590961164</v>
@@ -13851,7 +13743,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.684030567417278</v>
+        <v>1.686493603366711</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.417215209746572</v>
@@ -13940,7 +13832,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.659307325238823</v>
+        <v>1.664208676721739</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.571866023290256</v>
@@ -14029,7 +13921,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.657013321251232</v>
+        <v>1.666595042658408</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.561483849122074</v>
@@ -14118,7 +14010,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.656259387784553</v>
+        <v>1.667626748080349</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.637697163077087</v>
@@ -14207,7 +14099,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.663885775856545</v>
+        <v>1.675665509877861</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.639073708558793</v>
@@ -14296,7 +14188,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.681553761442197</v>
+        <v>1.69578618175161</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.737594846664545</v>
@@ -14385,7 +14277,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.68395993842129</v>
+        <v>1.698140911053272</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.710255792958038</v>
@@ -14474,7 +14366,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.691362705328915</v>
+        <v>1.711563164812464</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.736368734796132</v>
@@ -14563,7 +14455,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.695273169186231</v>
+        <v>1.718036841490739</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.720324413115645</v>
@@ -14652,7 +14544,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.711137185284888</v>
+        <v>1.734878241484699</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.692352116931112</v>
@@ -14741,7 +14633,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.702675637405159</v>
+        <v>1.726757575620889</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.673252923095652</v>
@@ -14830,7 +14722,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.681772228031516</v>
+        <v>1.706024909530587</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.681691429656166</v>
@@ -14919,7 +14811,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.679478641615403</v>
+        <v>1.709376533380635</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.698385098815422</v>
@@ -15008,7 +14900,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.68670573780672</v>
+        <v>1.716044366983476</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.650191595180766</v>
@@ -15097,7 +14989,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.678881565900464</v>
+        <v>1.710846603068578</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.59300938538635</v>
@@ -15186,7 +15078,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.695038665659733</v>
+        <v>1.726957594270139</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.676423938800497</v>
@@ -15275,7 +15167,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.71993361578047</v>
+        <v>1.751641163309703</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.119855245711411</v>
@@ -15364,7 +15256,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.71151540530031</v>
+        <v>1.748044962005922</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.194639046609647</v>
@@ -15453,7 +15345,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.718416328510496</v>
+        <v>1.753100742270747</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.893387154632863</v>
@@ -15542,7 +15434,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.721658719889514</v>
+        <v>1.758846992719527</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.172923139945814</v>
@@ -15631,7 +15523,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.708205606169673</v>
+        <v>1.746906536407374</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.282014387218401</v>
@@ -15917,7 +15809,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.554332672262928</v>
+        <v>1.540434659154141</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.665663934189775</v>
@@ -16006,7 +15898,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.556297361284057</v>
+        <v>1.539301089438604</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.580008872257499</v>
@@ -16095,7 +15987,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.554148686190241</v>
+        <v>1.534448052067248</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.346106620920317</v>
@@ -16184,7 +16076,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.546540163001907</v>
+        <v>1.523519802972126</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.279674985444466</v>
@@ -16273,7 +16165,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.541280459479357</v>
+        <v>1.521049312072653</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.459129155430519</v>
@@ -16362,7 +16254,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.54349346085627</v>
+        <v>1.520714431559327</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.415188729015959</v>
@@ -16451,7 +16343,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.556192455962431</v>
+        <v>1.528649511900539</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.161258771263525</v>
@@ -16540,7 +16432,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.561978124182372</v>
+        <v>1.528264057662891</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.817493606971965</v>
@@ -16629,7 +16521,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.550820082958945</v>
+        <v>1.514427940340714</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.40283086164267</v>
@@ -16718,7 +16610,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.552263251472827</v>
+        <v>1.511730563982904</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.558898698757543</v>
@@ -16807,7 +16699,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.546957624322393</v>
+        <v>1.500878187570879</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.570463091991272</v>
@@ -16896,7 +16788,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.563199977973503</v>
+        <v>1.512677040489119</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.262578835496742</v>
@@ -16985,7 +16877,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.565856497290235</v>
+        <v>1.515578751777401</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.880302424982377</v>
@@ -17074,7 +16966,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.566743897706687</v>
+        <v>1.519514676499102</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.201972533762134</v>
@@ -17163,7 +17055,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.568990965002738</v>
+        <v>1.525789360204164</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.712319139465696</v>
@@ -17252,7 +17144,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.57197489475814</v>
+        <v>1.53083225398683</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.663656061974023</v>
@@ -17341,7 +17233,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.572251819924786</v>
+        <v>1.529398653961892</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.252955710216671</v>
@@ -17430,7 +17322,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.56900560368955</v>
+        <v>1.523276869848467</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.460714866200883</v>
@@ -17519,7 +17411,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.594040540377997</v>
+        <v>1.540170570983805</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.764484713424027</v>
@@ -17608,7 +17500,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.584849921490036</v>
+        <v>1.526993573598392</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.38503678603169</v>
@@ -17697,7 +17589,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.591604771624925</v>
+        <v>1.536524071454225</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.121566298806735</v>
@@ -17786,7 +17678,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.585932423006208</v>
+        <v>1.536590191385205</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.428788823670339</v>
@@ -17875,7 +17767,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.57244719195901</v>
+        <v>1.527304349814714</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.335166767948869</v>
@@ -17964,7 +17856,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.579962102376653</v>
+        <v>1.52903540661427</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.118426217856138</v>
@@ -18053,7 +17945,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.575958815330344</v>
+        <v>1.533473655161417</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.275085543765045</v>
@@ -18142,7 +18034,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.587785829282922</v>
+        <v>1.54876864370159</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.196143911341105</v>
@@ -18231,7 +18123,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.582108060757636</v>
+        <v>1.541465305341704</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.218994385638477</v>
@@ -18320,7 +18212,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.59078353063223</v>
+        <v>1.550143006574532</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.446166588792829</v>
@@ -18409,7 +18301,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.591636929330734</v>
+        <v>1.553435687361856</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.058898438220687</v>
@@ -18498,7 +18390,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.591762071232829</v>
+        <v>1.549608622985634</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.060387027121837</v>
@@ -18587,7 +18479,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.58712625017573</v>
+        <v>1.543167103242166</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.513446917301236</v>
@@ -18676,7 +18568,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.592712074955219</v>
+        <v>1.550492324143434</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.021847637193327</v>
@@ -18765,7 +18657,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.592475504166492</v>
+        <v>1.551497453080376</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.495406479821213</v>
@@ -18854,7 +18746,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.584474181236831</v>
+        <v>1.54308813149237</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.952014676451686</v>
@@ -18943,7 +18835,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.583614723013139</v>
+        <v>1.548200023336601</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.105481311704894</v>
@@ -19032,7 +18924,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.59159046553528</v>
+        <v>1.557661936644805</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.297610977944082</v>
@@ -19121,7 +19013,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.5928776242641</v>
+        <v>1.563365826068452</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.148746770451527</v>
@@ -19210,7 +19102,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.598756359511316</v>
+        <v>1.56985540143556</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.16087148653332</v>
@@ -19299,7 +19191,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.606060715144012</v>
+        <v>1.578425015925438</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.295572926871392</v>
@@ -19388,7 +19280,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.613038063213409</v>
+        <v>1.583472040724058</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.193172705331698</v>
@@ -19477,7 +19369,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.614926586112109</v>
+        <v>1.582961817077229</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.051235413105147</v>
@@ -19566,7 +19458,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.611008052692735</v>
+        <v>1.587403486865208</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.37068808477955</v>
@@ -19655,7 +19547,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.586731961692537</v>
+        <v>1.56822813496809</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.294453263924132</v>
@@ -19744,7 +19636,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.59044937386236</v>
+        <v>1.569477289131883</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.287392036607836</v>
@@ -19833,7 +19725,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.587939612173625</v>
+        <v>1.569483646300659</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.96775644826983</v>
@@ -19922,7 +19814,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.590950427963062</v>
+        <v>1.575443968931867</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.050572455889028</v>
@@ -20011,7 +19903,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.590043754425267</v>
+        <v>1.571948974908417</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.936191629284149</v>
@@ -20100,7 +19992,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.587911737328436</v>
+        <v>1.57339090576055</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.194206477983754</v>
@@ -20189,7 +20081,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.601898368305579</v>
+        <v>1.591691335524853</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.160523629672471</v>
@@ -20278,7 +20170,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.618850507795942</v>
+        <v>1.607783144406865</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.128858282828738</v>
@@ -20367,7 +20259,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.610725653626348</v>
+        <v>1.593799732496828</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.13939786615514</v>
@@ -20456,7 +20348,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.593362242043689</v>
+        <v>1.571260321800814</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.877377467798148</v>
@@ -20545,7 +20437,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.609614247040311</v>
+        <v>1.588555609112949</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.169501375830905</v>
@@ -20634,7 +20526,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.605352010255688</v>
+        <v>1.58713872149601</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.197646937329174</v>
@@ -20723,7 +20615,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.599148366906376</v>
+        <v>1.579087988662168</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.178165183642222</v>
@@ -20812,7 +20704,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.598310187708921</v>
+        <v>1.581169300920565</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.174318325076017</v>
@@ -20901,7 +20793,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.589191356285021</v>
+        <v>1.568178986144906</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.907375814725413</v>
@@ -20990,7 +20882,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.580259535125065</v>
+        <v>1.565875207930409</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.605888249089241</v>
@@ -21079,7 +20971,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.578096333512523</v>
+        <v>1.563839757750118</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.551226369188964</v>
@@ -21168,7 +21060,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.588757215779117</v>
+        <v>1.576239283309653</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.493110166543052</v>
@@ -21257,7 +21149,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.598612717779312</v>
+        <v>1.58318500431109</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.608388134836407</v>
@@ -21543,7 +21435,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.67083059371556</v>
+        <v>1.645608941660847</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.000764223476689</v>
@@ -21632,7 +21524,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.665131795065166</v>
+        <v>1.649030200300559</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.687291468882101</v>
@@ -21721,7 +21613,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.639629368878576</v>
+        <v>1.616301886262293</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.551133292571712</v>
@@ -21810,7 +21702,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.624585925722857</v>
+        <v>1.601623669198635</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.672535180721421</v>
@@ -21899,7 +21791,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.623598218461106</v>
+        <v>1.602659594138455</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.771814809046064</v>
@@ -21988,7 +21880,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.629806513094794</v>
+        <v>1.609746479315556</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.459964502528311</v>
@@ -22077,7 +21969,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.630814374879686</v>
+        <v>1.611579473718683</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.885550828083591</v>
@@ -22166,7 +22058,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.631397250877182</v>
+        <v>1.618173097397514</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.244878354659845</v>
@@ -22255,7 +22147,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.632493290033535</v>
+        <v>1.615443761340764</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.724194626167845</v>
@@ -22344,7 +22236,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.633771502181497</v>
+        <v>1.60900054355639</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.576793719258184</v>
@@ -22433,7 +22325,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.636060975465706</v>
+        <v>1.614518790425214</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.649446699752387</v>
@@ -22522,7 +22414,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.632199785262937</v>
+        <v>1.615048255154734</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.66977869856342</v>
@@ -22611,7 +22503,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.640536151072311</v>
+        <v>1.618247669157715</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.305841829911193</v>
@@ -22700,7 +22592,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.655506644832907</v>
+        <v>1.633057365325247</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.568072202684438</v>
@@ -22789,7 +22681,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.648781372709708</v>
+        <v>1.621868823023211</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.545534252736575</v>
@@ -22878,7 +22770,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.637119827707604</v>
+        <v>1.60984459367272</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.642389113138351</v>
@@ -22967,7 +22859,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.638558657202768</v>
+        <v>1.610913192031019</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.425810774606181</v>
@@ -23056,7 +22948,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.645556765243194</v>
+        <v>1.614525758852439</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.221178250428231</v>
@@ -23145,7 +23037,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.664815691025476</v>
+        <v>1.6279902132807</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.810005707197852</v>
@@ -23234,7 +23126,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.667821477686765</v>
+        <v>1.632797096019879</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.651302218459046</v>
@@ -23323,7 +23215,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.659669773537924</v>
+        <v>1.624507157829102</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.438338626719046</v>
@@ -23412,7 +23304,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.635224910706988</v>
+        <v>1.601836982204555</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.949724843852786</v>
@@ -23501,7 +23393,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.628728002885154</v>
+        <v>1.586429298787227</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.381474219576711</v>
@@ -23590,7 +23482,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.620614121902812</v>
+        <v>1.577757932963078</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.820474956772743</v>
@@ -23679,7 +23571,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.627488946600668</v>
+        <v>1.587322944494482</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.071040572506706</v>
@@ -23768,7 +23660,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.613974305354491</v>
+        <v>1.578222300795358</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.130769784375839</v>
@@ -23857,7 +23749,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.619552684883598</v>
+        <v>1.580990724191885</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.304988446107221</v>
@@ -23946,7 +23838,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.620566661483446</v>
+        <v>1.579622893846763</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.312285153107953</v>
@@ -24035,7 +23927,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.610477590889806</v>
+        <v>1.56951059850947</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.919929718999089</v>
@@ -24124,7 +24016,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.615296239126567</v>
+        <v>1.574361689394615</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.391514804190003</v>
@@ -24213,7 +24105,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.612974937932378</v>
+        <v>1.576170218708387</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.381563289723648</v>
@@ -24302,7 +24194,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.61393424629885</v>
+        <v>1.576416809905486</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.281230998396173</v>
@@ -24391,7 +24283,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.615724131909803</v>
+        <v>1.576069391821225</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.163971448397587</v>
@@ -24480,7 +24372,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.606482087158068</v>
+        <v>1.565551001955264</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.239290641192085</v>
@@ -24569,7 +24461,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.596778739620522</v>
+        <v>1.548322428733275</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.907538784455949</v>
@@ -24658,7 +24550,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.636385363944844</v>
+        <v>1.596549519509702</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.787233400717825</v>
@@ -24747,7 +24639,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.648634931529892</v>
+        <v>1.608519156176876</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.373383520175566</v>
@@ -24836,7 +24728,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.653757587928725</v>
+        <v>1.618400051338491</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.386607864891776</v>
@@ -24925,7 +24817,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.664954898314876</v>
+        <v>1.629104947477595</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.208221326327922</v>
@@ -25014,7 +24906,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.673196363244243</v>
+        <v>1.636184180372119</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.316961680178173</v>
@@ -25103,7 +24995,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.691119566162743</v>
+        <v>1.651229057138424</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.01560878170948</v>
@@ -25192,7 +25084,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.683034288418636</v>
+        <v>1.643960495633907</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.486681509260664</v>
@@ -25281,7 +25173,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.671580454730857</v>
+        <v>1.634191117226221</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.082732652171248</v>
@@ -25370,7 +25262,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.650259699396474</v>
+        <v>1.620537085109161</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.189471160256834</v>
@@ -25459,7 +25351,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.65128764526771</v>
+        <v>1.629729943525887</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.400444202528097</v>
@@ -25548,7 +25440,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.653956175082331</v>
+        <v>1.631505771291813</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.316929585352873</v>
@@ -25637,7 +25529,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.65800117562209</v>
+        <v>1.634142961181922</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.314558194316933</v>
@@ -25726,7 +25618,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.647516535983547</v>
+        <v>1.623880857745051</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.311811127285187</v>
@@ -25815,7 +25707,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.657526977767771</v>
+        <v>1.639454776415065</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.231794898089747</v>
@@ -25904,7 +25796,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.665187741118568</v>
+        <v>1.651788997033284</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.137973092339906</v>
@@ -25993,7 +25885,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.640191960873105</v>
+        <v>1.620688398849053</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.21453155131178</v>
@@ -26082,7 +25974,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.638589900181461</v>
+        <v>1.616564312132562</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.069906096942261</v>
@@ -26171,7 +26063,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.644702140156035</v>
+        <v>1.623539178114748</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.230180203222</v>
@@ -26260,7 +26152,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.634341915023864</v>
+        <v>1.615055891171588</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.094096827218529</v>
@@ -26349,7 +26241,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.637965954991053</v>
+        <v>1.614411045249476</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.049749566958074</v>
@@ -26438,7 +26330,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.635548557344482</v>
+        <v>1.613206189357367</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.071212100553171</v>
@@ -26527,7 +26419,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.636777388572369</v>
+        <v>1.616749470251134</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.506291709778123</v>
@@ -26616,7 +26508,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.653430781149179</v>
+        <v>1.641560099364366</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.827032834904335</v>
@@ -26705,7 +26597,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.663301104818875</v>
+        <v>1.651354837372323</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.791992195956511</v>
@@ -26794,7 +26686,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.664368758667412</v>
+        <v>1.650569502949851</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.830300837775204</v>
@@ -26883,7 +26775,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.669591691104899</v>
+        <v>1.655939740323437</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.932310021223287</v>
@@ -27169,7 +27061,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.637235693924575</v>
+        <v>1.650858301406428</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.703528162220386</v>
@@ -27258,7 +27150,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.66112980088913</v>
+        <v>1.666977224649909</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.837385755981956</v>
@@ -27347,7 +27239,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.63371069702567</v>
+        <v>1.634605480865925</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.173583954360365</v>
@@ -27436,7 +27328,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.63583116545045</v>
+        <v>1.634174333733857</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.14488438617117</v>
@@ -27525,7 +27417,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.655900555873465</v>
+        <v>1.661463611394253</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.52421345930914</v>
@@ -27614,7 +27506,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.671048857597524</v>
+        <v>1.679901842626395</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.085463600467686</v>
@@ -27703,7 +27595,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.686927541378965</v>
+        <v>1.698451275104816</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.82499487793758</v>
@@ -27792,7 +27684,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.688258531650078</v>
+        <v>1.709504556805718</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.415811381428481</v>
@@ -27881,7 +27773,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.684424633831095</v>
+        <v>1.70645230067667</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.409064663794564</v>
@@ -27970,7 +27862,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.686361911698597</v>
+        <v>1.706495398072865</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.17656794236433</v>
@@ -28059,7 +27951,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.679873376546382</v>
+        <v>1.701660871702522</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.401175579377184</v>
@@ -28148,7 +28040,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.700611297545599</v>
+        <v>1.726183806082529</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.977871713922633</v>
@@ -28237,7 +28129,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.706201701417451</v>
+        <v>1.727072768472967</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.473013374094467</v>
@@ -28326,7 +28218,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.713968396209703</v>
+        <v>1.738787061080689</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.951213137275578</v>
@@ -28415,7 +28307,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.688884878343027</v>
+        <v>1.715726584920865</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.265188125819747</v>
@@ -28504,7 +28396,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.688829449481793</v>
+        <v>1.715797360610602</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.061446740588087</v>
@@ -28593,7 +28485,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.690468607641864</v>
+        <v>1.719619377210846</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.124899271297045</v>
@@ -28682,7 +28574,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.69142610251492</v>
+        <v>1.724342021202084</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.3297338094343</v>
@@ -28771,7 +28663,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.704676664463791</v>
+        <v>1.73355176727245</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.917297795096125</v>
@@ -28860,7 +28752,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.670078088650241</v>
+        <v>1.701107192462227</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.795481168249721</v>
@@ -28949,7 +28841,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.664459566924343</v>
+        <v>1.697601170173107</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.957728228692004</v>
@@ -29038,7 +28930,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.661286224384947</v>
+        <v>1.693135198805716</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.913069629496448</v>
@@ -29127,7 +29019,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.647951905168831</v>
+        <v>1.675738927435313</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.603371799329316</v>
@@ -29216,7 +29108,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.647734851514172</v>
+        <v>1.678598218911208</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.982971307651274</v>
@@ -29305,7 +29197,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.654266565266039</v>
+        <v>1.684995267426216</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.836992278645633</v>
@@ -29394,7 +29286,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.661630676363263</v>
+        <v>1.692877848037398</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.811209346464323</v>
@@ -29483,7 +29375,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.673824188148952</v>
+        <v>1.705250066642225</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.84642778403889</v>
@@ -29572,7 +29464,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.686453999099545</v>
+        <v>1.715861053283447</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.999498128001257</v>
@@ -29661,7 +29553,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.688249645102665</v>
+        <v>1.715277339271623</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.941097643978677</v>
@@ -29750,7 +29642,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.71215652269631</v>
+        <v>1.743101452704715</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.078875547585574</v>
@@ -29839,7 +29731,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.720035699416522</v>
+        <v>1.752203540383222</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.045439214449378</v>
@@ -29928,7 +29820,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.733213664015262</v>
+        <v>1.765209959956809</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.100308042125363</v>
@@ -30017,7 +29909,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.74664789764583</v>
+        <v>1.777549036418273</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.979089661113737</v>
@@ -30106,7 +29998,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.760786889301761</v>
+        <v>1.788235163863609</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.77328271731268</v>
@@ -30195,7 +30087,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.775222158398805</v>
+        <v>1.802228008527205</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.14124127594596</v>
@@ -30284,7 +30176,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.784643460298626</v>
+        <v>1.813665534178732</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.949438156494883</v>
@@ -30373,7 +30265,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.786008574175121</v>
+        <v>1.812208408442663</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.869588549524083</v>
@@ -30462,7 +30354,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.82313081127552</v>
+        <v>1.84755191896899</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.795678017017519</v>
@@ -30551,7 +30443,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.828908042470308</v>
+        <v>1.852523519000384</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.982839267719856</v>
@@ -30640,7 +30532,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.824715693747238</v>
+        <v>1.853675939234156</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.734733442109897</v>
@@ -30729,7 +30621,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.824806543728383</v>
+        <v>1.85013876541559</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.031099069966272</v>
@@ -30818,7 +30710,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.759807873264607</v>
+        <v>1.792841283651248</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.800876842020841</v>
@@ -30907,7 +30799,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.725662824582724</v>
+        <v>1.77221809242648</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.794681867577241</v>
@@ -30996,7 +30888,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.711298189012511</v>
+        <v>1.756150505233227</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.907363910904621</v>
@@ -31085,7 +30977,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.70570033559972</v>
+        <v>1.751928020284935</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.828092343113265</v>
@@ -31174,7 +31066,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.703464945315842</v>
+        <v>1.749108931227736</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.789267009871528</v>
@@ -31263,7 +31155,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.700892188585805</v>
+        <v>1.746061472495126</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.902219934720836</v>
@@ -31352,7 +31244,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.693747698222905</v>
+        <v>1.740133630216276</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.839889750715431</v>
@@ -31441,7 +31333,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.700412278766092</v>
+        <v>1.74847036060781</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.951046963288499</v>
@@ -31530,7 +31422,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.712675097033457</v>
+        <v>1.761622137248537</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.675247510154233</v>
@@ -31619,7 +31511,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.711615555352936</v>
+        <v>1.758893597401145</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.837058942874136</v>
@@ -31708,7 +31600,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.722448620195381</v>
+        <v>1.77053115131713</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.690791377043999</v>
@@ -31797,7 +31689,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.72232115938225</v>
+        <v>1.773256644780237</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.916647830421959</v>
@@ -31886,7 +31778,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.723743793109714</v>
+        <v>1.774243828255702</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.753300010140661</v>
@@ -31975,7 +31867,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.721744228865803</v>
+        <v>1.770015025019457</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.755096457599902</v>
@@ -32064,7 +31956,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.743539854259417</v>
+        <v>1.792652699044277</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.6425408442126</v>
@@ -32153,7 +32045,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.800271264512953</v>
+        <v>1.838097952234883</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.712138336506345</v>
@@ -32242,7 +32134,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.790820526253049</v>
+        <v>1.833195990955131</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.104821469236426</v>
@@ -32331,7 +32223,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.807732874954195</v>
+        <v>1.850520739668204</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.085835142970827</v>
@@ -32420,7 +32312,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.808295935741327</v>
+        <v>1.854672003087742</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.062214297509588</v>
@@ -32509,7 +32401,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.811503592572081</v>
+        <v>1.859084072252888</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.033881529400239</v>
@@ -32795,7 +32687,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.26126672297154</v>
+        <v>1.257147003977929</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.322310600393316</v>
@@ -32884,7 +32776,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.273925144176138</v>
+        <v>1.269915138030793</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.287442155216941</v>
@@ -32973,7 +32865,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.277957606664323</v>
+        <v>1.268281448497625</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.018602443298291</v>
@@ -33062,7 +32954,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.309645635429275</v>
+        <v>1.304177400515912</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.979596824579362</v>
@@ -33151,7 +33043,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.360032722634191</v>
+        <v>1.353354741185424</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.208442857128274</v>
@@ -33240,7 +33132,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.376609321024224</v>
+        <v>1.370731653376428</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.081630066309156</v>
@@ -33329,7 +33221,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.428782347281474</v>
+        <v>1.424984834071443</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.389013901385121</v>
@@ -33418,7 +33310,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.440935394636893</v>
+        <v>1.436800969622144</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.314059159346156</v>
@@ -33507,7 +33399,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.470732718989006</v>
+        <v>1.457237858380079</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.073342692015014</v>
@@ -33596,7 +33488,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.45929300820379</v>
+        <v>1.45189820865076</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.342536156415342</v>
@@ -33685,7 +33577,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.458443887349555</v>
+        <v>1.448090415537205</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.294560289329502</v>
@@ -33774,7 +33666,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.453979665940902</v>
+        <v>1.444760594503778</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.174893876935958</v>
@@ -33863,7 +33755,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.447312259212499</v>
+        <v>1.433167984044968</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.231531849430465</v>
@@ -33952,7 +33844,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.426090262925551</v>
+        <v>1.411053478629429</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.190710865160514</v>
@@ -34041,7 +33933,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.41550944476463</v>
+        <v>1.4042644962066</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.271097083990757</v>
@@ -34130,7 +34022,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.443261975146751</v>
+        <v>1.427461285741323</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.42898564615344</v>
@@ -34219,7 +34111,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.420842234071412</v>
+        <v>1.403384966816424</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.2796666921885</v>
@@ -34308,7 +34200,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.422265715036739</v>
+        <v>1.406198299292313</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.226416008687249</v>
@@ -34397,7 +34289,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.428426537437079</v>
+        <v>1.410778425277287</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.299322003672838</v>
@@ -34486,7 +34378,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.418574914889556</v>
+        <v>1.408190261452038</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.260811766281677</v>
@@ -34575,7 +34467,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.440383530768816</v>
+        <v>1.425044010022073</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.328026062254419</v>
@@ -34664,7 +34556,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.424371420268521</v>
+        <v>1.410189541639021</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.300903390073585</v>
@@ -34753,7 +34645,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.41826574359875</v>
+        <v>1.404171759420088</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.365111770302354</v>
@@ -34842,7 +34734,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.406983634206769</v>
+        <v>1.393393364427866</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.188302930026375</v>
@@ -34931,7 +34823,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.429373781902989</v>
+        <v>1.415726910690153</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.256795243343462</v>
@@ -35020,7 +34912,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.413108679273555</v>
+        <v>1.396532918605787</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.393663552623466</v>
@@ -35109,7 +35001,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.403318170688933</v>
+        <v>1.388024600596462</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.40662591003368</v>
@@ -35198,7 +35090,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.402246583486207</v>
+        <v>1.384316478195545</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.413149413183214</v>
@@ -35287,7 +35179,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.414520459507828</v>
+        <v>1.395296309704545</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.359900832542988</v>
@@ -35376,7 +35268,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.407315563854487</v>
+        <v>1.388092564495507</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.242372665757881</v>
@@ -35465,7 +35357,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.374066320012335</v>
+        <v>1.355561942186348</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.296125092971684</v>
@@ -35554,7 +35446,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.370898776998996</v>
+        <v>1.354767834359504</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.331184524548027</v>
@@ -35643,7 +35535,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.375179838206222</v>
+        <v>1.350875209655975</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.298347201911191</v>
@@ -35732,7 +35624,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.349323780070475</v>
+        <v>1.33086023938833</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.327472774007467</v>
@@ -35821,7 +35713,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.338940836309591</v>
+        <v>1.311125086156161</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.209132455745736</v>
@@ -35910,7 +35802,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.35283447829035</v>
+        <v>1.33142808314732</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.254094253416668</v>
@@ -35999,7 +35891,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.353197667616865</v>
+        <v>1.330716846276988</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.130705733075241</v>
@@ -36088,7 +35980,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.33563226730999</v>
+        <v>1.315887978274825</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.407293414712761</v>
@@ -36177,7 +36069,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.340186145665299</v>
+        <v>1.321634545267052</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.279954377574525</v>
@@ -36266,7 +36158,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.348796868117815</v>
+        <v>1.329426048031367</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.227591609204894</v>
@@ -36355,7 +36247,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.341108588683288</v>
+        <v>1.327278899315937</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.284918958432856</v>
@@ -36444,7 +36336,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.328983604603307</v>
+        <v>1.318815861204953</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.31921937220792</v>
@@ -36533,7 +36425,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.322703478763093</v>
+        <v>1.314822103029687</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.310763020471012</v>
@@ -36622,7 +36514,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.310302630720744</v>
+        <v>1.301442778961062</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.40663740029137</v>
@@ -36711,7 +36603,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.329178080220631</v>
+        <v>1.324300113647218</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.331879880768067</v>
@@ -36800,7 +36692,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.356051034529278</v>
+        <v>1.354242878471269</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.253805461530719</v>
@@ -36889,7 +36781,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.376186910370699</v>
+        <v>1.374251669672043</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.292912145904368</v>
@@ -36978,7 +36870,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.389697254432963</v>
+        <v>1.391429932074353</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.266139601370563</v>
@@ -37067,7 +36959,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.413258240017192</v>
+        <v>1.417958375706515</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.327792148558533</v>
@@ -37156,7 +37048,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.438965132089038</v>
+        <v>1.448836750336857</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.278036902602967</v>
@@ -37245,7 +37137,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.415688520745312</v>
+        <v>1.423113295905165</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.169606391688516</v>
@@ -37334,7 +37226,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.40014521309614</v>
+        <v>1.407409335871194</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.380883852317885</v>
@@ -37423,7 +37315,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.417010475213577</v>
+        <v>1.425142501255042</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.38324465241299</v>
@@ -37512,7 +37404,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.443348695937273</v>
+        <v>1.452084003671873</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.333827139362201</v>
@@ -37601,7 +37493,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.447041125451563</v>
+        <v>1.454258374167034</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.172781468894348</v>
@@ -37690,7 +37582,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.464207820640023</v>
+        <v>1.47205043410742</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.405640322908293</v>
@@ -37779,7 +37671,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.500311723183325</v>
+        <v>1.504695739691819</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.514218693769097</v>
@@ -37868,7 +37760,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.532561210952576</v>
+        <v>1.536345794694164</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.108177965069121</v>
@@ -37957,7 +37849,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.575521347266268</v>
+        <v>1.583750685398396</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.26096308547928</v>
@@ -38046,7 +37938,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.546650727431242</v>
+        <v>1.553080980801777</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.383457366708902</v>
@@ -38135,7 +38027,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.505212843659591</v>
+        <v>1.514263399268493</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.271594279583319</v>
